--- a/Project-6/results.xlsx
+++ b/Project-6/results.xlsx
@@ -994,7 +994,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>MegaMultiplies Per Second</a:t>
+                  <a:t>GigaMultiplies Per Second</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2204,7 +2204,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>MegaMultiplies Per Second</a:t>
+                  <a:t>GigaMultiplies Per Second</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3162,7 +3162,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>MegaMultiplies And Adds Per Second</a:t>
+                  <a:t>GigaMultiplies And Adds Per Second</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4372,7 +4372,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>MegaMultiplies And Adds Per Second</a:t>
+                  <a:t>GigaMultiplies And Adds Per Second</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4586,7 +4586,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>MegaMultiplies Reductions Per Second</a:t>
+                  <a:t>GigaMultiplies Reductions Per Second</a:t>
                 </a:r>
               </a:p>
             </c:rich>
